--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail13 Features.xlsx
@@ -671,7 +671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,29 +682,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -725,115 +723,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -850,72 +838,66 @@
         <v>7.431025092852031e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4953579834501376</v>
+        <v>2.661112832772511e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.7463313286184343</v>
+        <v>6.905250915546184e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.661112832772511e-07</v>
+        <v>-0.005670958694767965</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.905250915546184e-06</v>
+        <v>0.2847664674882589</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.005670958694767965</v>
+        <v>0.08112248801379857</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2847664674882589</v>
+        <v>1.908872597979357</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08112248801379857</v>
+        <v>2.11049949278629</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.933729463969372</v>
+        <v>3.796983468874135</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.11049949278629</v>
+        <v>1.977269366128673e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.796983468874135</v>
+        <v>245061849.1881233</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.977269366128673e-15</v>
+        <v>4.887763137228246e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>245061849.1881233</v>
+        <v>118.7455245930138</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.887763137228246e-07</v>
+        <v>0.0001773835381326121</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>118.7455245930138</v>
+        <v>11.37974046882665</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001773835381326121</v>
+        <v>1.066727507925902</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.37974046882665</v>
+        <v>0.02297090089563381</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.066727507925902</v>
+        <v>2.543044607879398</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02297090089563381</v>
+        <v>0.9561988258079479</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.543044607879398</v>
+        <v>1.271345828052588</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9561988258079479</v>
+        <v>31</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.271345828052588</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.4117586487932355</v>
       </c>
     </row>
@@ -930,72 +912,66 @@
         <v>7.491904458766288e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.47907230678867</v>
+        <v>2.698207862484637e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.7647773924993402</v>
+        <v>6.904689421434243e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.698207862484637e-07</v>
+        <v>-0.00978602352059855</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.904689421434243e-06</v>
+        <v>0.2826635659553952</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.00978602352059855</v>
+        <v>0.07999101647678505</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2826635659553952</v>
+        <v>1.906586269699258</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07999101647678505</v>
+        <v>2.132467557771855</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.932035997880265</v>
+        <v>3.925025800288612</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.132467557771855</v>
+        <v>1.850368467333828e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.925025800288612</v>
+        <v>257835214.5786595</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.850368467333828e-15</v>
+        <v>4.646092428040568e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>257835214.5786595</v>
+        <v>123.0106414112265</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.646092428040568e-07</v>
+        <v>0.0001812413973730588</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>123.0106414112265</v>
+        <v>10.2231726767397</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001812413973730588</v>
+        <v>1.206660036151332</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.2231726767397</v>
+        <v>0.01894212921000919</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.206660036151332</v>
+        <v>2.725499419655548</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01894212921000919</v>
+        <v>0.9574385893134554</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.725499419655548</v>
+        <v>1.283150522478955</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9574385893134554</v>
+        <v>41</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.283150522478955</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3872159512065532</v>
       </c>
     </row>
@@ -1010,72 +986,66 @@
         <v>7.591855987415977e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4552815974850569</v>
+        <v>2.796029720264817e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.7930382132148082</v>
+        <v>6.903729142515313e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.796029720264817e-07</v>
+        <v>-0.01591776159754008</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.903729142515313e-06</v>
+        <v>0.2772801930439306</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.01591776159754008</v>
+        <v>0.07713053343590848</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2772801930439306</v>
+        <v>1.903576196735222</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.07713053343590848</v>
+        <v>2.198430961286203</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.931704705648321</v>
+        <v>4.008843347005532</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.198430961286203</v>
+        <v>1.773801750322225e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.008843347005532</v>
+        <v>271213981.2385514</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.773801750322225e-15</v>
+        <v>4.417275791333602e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>271213981.2385514</v>
+        <v>130.4755772443461</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.417275791333602e-07</v>
+        <v>0.0002085090178537188</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>130.4755772443461</v>
+        <v>9.248296821998768</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002085090178537188</v>
+        <v>1.569875038810713</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.248296821998768</v>
+        <v>0.01783398357746803</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.569875038810713</v>
+        <v>2.782237981097632</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01783398357746803</v>
+        <v>0.957724381736147</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.782237981097632</v>
+        <v>1.291209590235223</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.957724381736147</v>
+        <v>41</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.291209590235223</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3839021655562397</v>
       </c>
     </row>
@@ -1090,72 +1060,66 @@
         <v>7.727422604232521e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.4346124926873902</v>
+        <v>2.864801712552897e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8296647786879223</v>
+        <v>6.902240386740406e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.864801712552897e-07</v>
+        <v>-0.02292976088531521</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.902240386740406e-06</v>
+        <v>0.2683820610422469</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02292976088531521</v>
+        <v>0.07254501669798416</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2683820610422469</v>
+        <v>1.907538390370447</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07254501669798416</v>
+        <v>2.373081075120255</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.93416127908082</v>
+        <v>3.967733325840447</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.373081075120255</v>
+        <v>1.810749192073516e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.967733325840447</v>
+        <v>265682108.3199454</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.810749192073516e-15</v>
+        <v>4.505950348921214e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>265682108.3199454</v>
+        <v>127.8153218611278</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.505950348921214e-07</v>
+        <v>0.0002021151684625903</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>127.8153218611278</v>
+        <v>9.554191478730527</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002021151684625903</v>
+        <v>1.47748827548799</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.554191478730527</v>
+        <v>0.0184495929858763</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.47748827548799</v>
+        <v>2.793699988503721</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0184495929858763</v>
+        <v>0.9572573163433765</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.793699988503721</v>
+        <v>1.278375004847244</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9572573163433765</v>
+        <v>39</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.278375004847244</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.4025888759502212</v>
       </c>
     </row>
@@ -1532,7 +1496,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.550234116675311</v>
+        <v>1.469251573956995</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.011439073051298</v>
@@ -1621,7 +1585,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.553715044925754</v>
+        <v>1.467626193512179</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.185884230250585</v>
@@ -1710,7 +1674,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.568423574222411</v>
+        <v>1.477249917297635</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.230013554054188</v>
@@ -1799,7 +1763,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.556911523460316</v>
+        <v>1.474050619621689</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.733602738774398</v>
@@ -1888,7 +1852,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.563081467931425</v>
+        <v>1.478324700835606</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.969814442242265</v>
@@ -1977,7 +1941,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.561656035211644</v>
+        <v>1.47732327319983</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.15172779184296</v>
@@ -2066,7 +2030,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.567108368098714</v>
+        <v>1.480523162293969</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.24448297276744</v>
@@ -2155,7 +2119,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.575077260465423</v>
+        <v>1.494806062716272</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.653528055647216</v>
@@ -2244,7 +2208,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.569809430450368</v>
+        <v>1.486782950063355</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.094735863855135</v>
@@ -2333,7 +2297,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.558940477734407</v>
+        <v>1.47792460459449</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.991736603567025</v>
@@ -2422,7 +2386,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.571008873597493</v>
+        <v>1.486210470462729</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.135049248088976</v>
@@ -2511,7 +2475,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.572154297784717</v>
+        <v>1.490136136187715</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.099268740958974</v>
@@ -2600,7 +2564,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.57327813150867</v>
+        <v>1.490434092882796</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.020887150600024</v>
@@ -2689,7 +2653,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.569988989100818</v>
+        <v>1.486359262072246</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.100592358271495</v>
@@ -2778,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.566559000638157</v>
+        <v>1.479058438102369</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.675833290991664</v>
@@ -2867,7 +2831,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.571317341254924</v>
+        <v>1.492421193376802</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.288799708858256</v>
@@ -2956,7 +2920,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.569867912952603</v>
+        <v>1.492201760479739</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.075668760204538</v>
@@ -3045,7 +3009,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.570537420616559</v>
+        <v>1.494850141977948</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.847864053053387</v>
@@ -3134,7 +3098,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.569104493162381</v>
+        <v>1.495337235333351</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.243614342847522</v>
@@ -3223,7 +3187,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.560991961344527</v>
+        <v>1.491537209659194</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.592272143009502</v>
@@ -3312,7 +3276,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.547353067333523</v>
+        <v>1.475460556932192</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.897707096699947</v>
@@ -3401,7 +3365,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.52695269381618</v>
+        <v>1.468196379557373</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.891061901526332</v>
@@ -3490,7 +3454,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.527206745356008</v>
+        <v>1.466284019764042</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.875302329947143</v>
@@ -3579,7 +3543,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.536798956813758</v>
+        <v>1.478193488881634</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.9248815375527</v>
@@ -3668,7 +3632,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.536680770385098</v>
+        <v>1.484733033170448</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.973944748929943</v>
@@ -3757,7 +3721,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.541041298675135</v>
+        <v>1.489745597900672</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.033382732497987</v>
@@ -3846,7 +3810,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.547155441104946</v>
+        <v>1.493118565090264</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.960774155032489</v>
@@ -3935,7 +3899,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.552196469648577</v>
+        <v>1.499729520317691</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.103897112414752</v>
@@ -4024,7 +3988,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.553963869836202</v>
+        <v>1.500202003492376</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.970907855041355</v>
@@ -4113,7 +4077,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.56255735153829</v>
+        <v>1.51281297089028</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.108834469571764</v>
@@ -4202,7 +4166,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.56171086832789</v>
+        <v>1.506188635528617</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.076390395834579</v>
@@ -4291,7 +4255,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.571006997759705</v>
+        <v>1.515292246125626</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.045428775497289</v>
@@ -4380,7 +4344,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.56137898473532</v>
+        <v>1.50290649650587</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.760935830532247</v>
@@ -4469,7 +4433,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.566791546884739</v>
+        <v>1.511214045276924</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.601042189276538</v>
@@ -4558,7 +4522,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.57572235739407</v>
+        <v>1.509074755763404</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.021014753921829</v>
@@ -4647,7 +4611,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.598780004181703</v>
+        <v>1.531418523528001</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.543893621945189</v>
@@ -4736,7 +4700,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.608529053130362</v>
+        <v>1.539953580208972</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.927894046493767</v>
@@ -4825,7 +4789,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.601020699062165</v>
+        <v>1.526758429629539</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.018968927580145</v>
@@ -4914,7 +4878,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.594662245358572</v>
+        <v>1.521989435415208</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.882661438819073</v>
@@ -5003,7 +4967,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.607358155554061</v>
+        <v>1.526492925825986</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.200591516827389</v>
@@ -5092,7 +5056,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.601189888968009</v>
+        <v>1.508886191772498</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.251058142259518</v>
@@ -5181,7 +5145,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.600697282111934</v>
+        <v>1.509843320932064</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.455234295524814</v>
@@ -5270,7 +5234,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.591695416737656</v>
+        <v>1.501279406811379</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.227773477114924</v>
@@ -5359,7 +5323,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.596754062345666</v>
+        <v>1.502158482810372</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.134162660421971</v>
@@ -5448,7 +5412,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.59412864388764</v>
+        <v>1.501519669839419</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.605984049318626</v>
@@ -5537,7 +5501,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.598306969362678</v>
+        <v>1.502971157089264</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.297830128982712</v>
@@ -5626,7 +5590,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.594676193277459</v>
+        <v>1.497514256693658</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.389547845553175</v>
@@ -5715,7 +5679,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.613823930995124</v>
+        <v>1.513339596549977</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.242925548559584</v>
@@ -5804,7 +5768,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.565575859982826</v>
+        <v>1.470404688204629</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.210619827181617</v>
@@ -6090,7 +6054,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.537233942638409</v>
+        <v>1.463992883582449</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.856764374213425</v>
@@ -6179,7 +6143,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.555267065649584</v>
+        <v>1.475185982597793</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.819376992429493</v>
@@ -6268,7 +6232,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.554484789135286</v>
+        <v>1.475956491677986</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.142039609257361</v>
@@ -6357,7 +6321,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.545363636855018</v>
+        <v>1.473325716031943</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.831759267833902</v>
@@ -6446,7 +6410,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.558434486338518</v>
+        <v>1.483527548187984</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.831395237500587</v>
@@ -6535,7 +6499,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.555943957488777</v>
+        <v>1.478547042801191</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.085216739636292</v>
@@ -6624,7 +6588,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.560165660310819</v>
+        <v>1.48091465930505</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.103526727679446</v>
@@ -6713,7 +6677,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.561023095311876</v>
+        <v>1.496557271946832</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.554196244432895</v>
@@ -6802,7 +6766,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.566483299730047</v>
+        <v>1.497094962212184</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.133851596689303</v>
@@ -6891,7 +6855,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.557960710054129</v>
+        <v>1.489500810222663</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.126544817604264</v>
@@ -6980,7 +6944,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.569530112427901</v>
+        <v>1.499939842493638</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.054272956803548</v>
@@ -7069,7 +7033,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.572422097809274</v>
+        <v>1.50698054583084</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.106121950558949</v>
@@ -7158,7 +7122,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.580684910343246</v>
+        <v>1.510361697637171</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.794769712582166</v>
@@ -7247,7 +7211,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.583545072087269</v>
+        <v>1.512971745522934</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.893971799156805</v>
@@ -7336,7 +7300,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.575629586769768</v>
+        <v>1.498660771381652</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.83426409847296</v>
@@ -7425,7 +7389,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.572139772885422</v>
+        <v>1.504100485568372</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.117079295842272</v>
@@ -7514,7 +7478,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.578782637861162</v>
+        <v>1.50725816766398</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.781131906688443</v>
@@ -7603,7 +7567,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.581431017262263</v>
+        <v>1.508513218942884</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.727322229027544</v>
@@ -7692,7 +7656,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.591258921837925</v>
+        <v>1.520759192054628</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.041614030654705</v>
@@ -7781,7 +7745,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.580482398255091</v>
+        <v>1.51635528578301</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.763783175310168</v>
@@ -7870,7 +7834,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.566875078128523</v>
+        <v>1.502226606791787</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.968039319551542</v>
@@ -7959,7 +7923,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.552524038101467</v>
+        <v>1.495486215096903</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.809724176094402</v>
@@ -8048,7 +8012,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.541356759595456</v>
+        <v>1.481674470433847</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.976151357321545</v>
@@ -8137,7 +8101,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.545900387064298</v>
+        <v>1.493914727723249</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.531524374356899</v>
@@ -8226,7 +8190,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.548502588791589</v>
+        <v>1.497880921023283</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.818078880453363</v>
@@ -8315,7 +8279,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.542211333307572</v>
+        <v>1.495567649125304</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.936142213795114</v>
@@ -8404,7 +8368,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.544733915701228</v>
+        <v>1.49716036034577</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.983983053717137</v>
@@ -8493,7 +8457,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.54049659870463</v>
+        <v>1.49510153458771</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.908360798361987</v>
@@ -8582,7 +8546,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.542628391324099</v>
+        <v>1.495249476012664</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.010211028255764</v>
@@ -8671,7 +8635,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.552302934701535</v>
+        <v>1.513350179786367</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.676095282984475</v>
@@ -8760,7 +8724,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.559428459565888</v>
+        <v>1.515771181702383</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.892688860479218</v>
@@ -8849,7 +8813,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.562365802043065</v>
+        <v>1.519049876339864</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.955800434012456</v>
@@ -8938,7 +8902,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.555208677932382</v>
+        <v>1.507992590485867</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.940553841129608</v>
@@ -9027,7 +8991,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.540646824549267</v>
+        <v>1.497688622837145</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.645532586102059</v>
@@ -9116,7 +9080,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.548555441702118</v>
+        <v>1.49425440314725</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.628147326988665</v>
@@ -9205,7 +9169,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.566243210840849</v>
+        <v>1.512077781640763</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.530334063106192</v>
@@ -9294,7 +9258,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.576767388352539</v>
+        <v>1.520888156182672</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.235049489452046</v>
@@ -9383,7 +9347,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.583890238999985</v>
+        <v>1.520942247333196</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.096961523550103</v>
@@ -9472,7 +9436,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.569639879994355</v>
+        <v>1.504596596932685</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.115339615608763</v>
@@ -9561,7 +9525,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.575656301038576</v>
+        <v>1.50306876405523</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.694026476592308</v>
@@ -9650,7 +9614,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.578514639771118</v>
+        <v>1.491444883052482</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.934890241550661</v>
@@ -9739,7 +9703,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.572924337640287</v>
+        <v>1.487729335538367</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.133202343759737</v>
@@ -9828,7 +9792,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.573927568315762</v>
+        <v>1.490311823195646</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.854835146800802</v>
@@ -9917,7 +9881,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.575122320252355</v>
+        <v>1.487237881544936</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.908752317954101</v>
@@ -10006,7 +9970,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.562546913051069</v>
+        <v>1.477072398291721</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.99491775404502</v>
@@ -10095,7 +10059,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.572178335209501</v>
+        <v>1.477097027709218</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.820840041788751</v>
@@ -10184,7 +10148,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.569366342336918</v>
+        <v>1.478655593142882</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.172088456494339</v>
@@ -10273,7 +10237,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.585341242684399</v>
+        <v>1.494153334641488</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.017702438581913</v>
@@ -10362,7 +10326,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.550281135741046</v>
+        <v>1.459608440587807</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.293798739520875</v>
@@ -10648,7 +10612,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.529060358470115</v>
+        <v>1.46295189553868</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.072548831136136</v>
@@ -10737,7 +10701,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.535449150272428</v>
+        <v>1.464606304164661</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.7781945837488</v>
@@ -10826,7 +10790,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.544815592586174</v>
+        <v>1.471251765760978</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.827760322143641</v>
@@ -10915,7 +10879,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.544729808437675</v>
+        <v>1.474256780414149</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.177442999618472</v>
@@ -11004,7 +10968,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.552919768488392</v>
+        <v>1.478927317092694</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.618629396292897</v>
@@ -11093,7 +11057,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.558267903502916</v>
+        <v>1.486736630290809</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.857680115840239</v>
@@ -11182,7 +11146,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.566669594307663</v>
+        <v>1.491229179491669</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.097125944884644</v>
@@ -11271,7 +11235,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.564375713737469</v>
+        <v>1.49431675963235</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.510330523659304</v>
@@ -11360,7 +11324,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.577230543402726</v>
+        <v>1.506317735468281</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.18958298413084</v>
@@ -11449,7 +11413,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.588447447218328</v>
+        <v>1.516498016610453</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.035321996442341</v>
@@ -11538,7 +11502,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.597626926715649</v>
+        <v>1.523400972387166</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.278740611469597</v>
@@ -11627,7 +11591,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.605139046021496</v>
+        <v>1.526365841352309</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.209183969476523</v>
@@ -11716,7 +11680,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.61154016818892</v>
+        <v>1.526660822996099</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.08375630785839</v>
@@ -11805,7 +11769,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.611525734880269</v>
+        <v>1.531162253980221</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.220064668186231</v>
@@ -11894,7 +11858,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.61741330713518</v>
+        <v>1.529638092801503</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.040397856778166</v>
@@ -11983,7 +11947,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.601785244456122</v>
+        <v>1.522290880403737</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.274828638669806</v>
@@ -12072,7 +12036,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.601354658939899</v>
+        <v>1.522936990049949</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.526168128648799</v>
@@ -12161,7 +12125,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.595500600161015</v>
+        <v>1.513374478910747</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.553644823185909</v>
@@ -12250,7 +12214,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.597893402853723</v>
+        <v>1.513023478205515</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.180469558773248</v>
@@ -12339,7 +12303,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.589789660421507</v>
+        <v>1.509784790666007</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.011176476819802</v>
@@ -12428,7 +12392,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.577543709072975</v>
+        <v>1.498109794072898</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.769024836968542</v>
@@ -12517,7 +12481,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.554713073981702</v>
+        <v>1.476906178282236</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.832996340862647</v>
@@ -12606,7 +12570,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.554623233148882</v>
+        <v>1.47577196528992</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.017955288975492</v>
@@ -12695,7 +12659,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.555135904823777</v>
+        <v>1.475385542208266</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.075321595080206</v>
@@ -12784,7 +12748,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.540159230238097</v>
+        <v>1.460451197499397</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.115067272255596</v>
@@ -12873,7 +12837,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.534260977890076</v>
+        <v>1.462197928055416</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.171927869414242</v>
@@ -12962,7 +12926,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.529596914488235</v>
+        <v>1.456910212696896</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.967871025113423</v>
@@ -13051,7 +13015,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.517641338343245</v>
+        <v>1.452294884105922</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.082482282189358</v>
@@ -13140,7 +13104,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.514256093153691</v>
+        <v>1.45253107066792</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.771699337004761</v>
@@ -13229,7 +13193,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.510505839947466</v>
+        <v>1.452830920013133</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.128044423764527</v>
@@ -13318,7 +13282,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.527607364308552</v>
+        <v>1.469841746405471</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.008520875045793</v>
@@ -13407,7 +13371,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.531518024556173</v>
+        <v>1.474383710502155</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.956007475049548</v>
@@ -13496,7 +13460,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.52736845780999</v>
+        <v>1.47287956551394</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.17044322905693</v>
@@ -13585,7 +13549,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.520720153248864</v>
+        <v>1.471924094589032</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.876966934114414</v>
@@ -13674,7 +13638,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.521094426933029</v>
+        <v>1.469192120229313</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.76285449938353</v>
@@ -13763,7 +13727,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.534647255521405</v>
+        <v>1.479822970650107</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.485804245036863</v>
@@ -13852,7 +13816,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.545402242187214</v>
+        <v>1.491536706805267</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.330916283256048</v>
@@ -13941,7 +13905,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.55463196412931</v>
+        <v>1.49590786725276</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.337729225345258</v>
@@ -14030,7 +13994,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.552261173644262</v>
+        <v>1.486702036145641</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.442107295834625</v>
@@ -14119,7 +14083,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.561214932379804</v>
+        <v>1.491784183934223</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.882941467602849</v>
@@ -14208,7 +14172,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.561067286798172</v>
+        <v>1.486271826083008</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.371874817539733</v>
@@ -14297,7 +14261,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.562755136502207</v>
+        <v>1.489638871468052</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.196266667766055</v>
@@ -14386,7 +14350,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.572493696380995</v>
+        <v>1.488352196069524</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.861695138932481</v>
@@ -14475,7 +14439,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.586298654281595</v>
+        <v>1.493976502357967</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.147820063795007</v>
@@ -14564,7 +14528,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.589534070848715</v>
+        <v>1.496535670376019</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.872735476369519</v>
@@ -14653,7 +14617,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.589781163743999</v>
+        <v>1.493167441573099</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.192849753224764</v>
@@ -14742,7 +14706,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.584435555571791</v>
+        <v>1.486756074081024</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.165570592081282</v>
@@ -14831,7 +14795,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.587342505695141</v>
+        <v>1.492984902971616</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.215007615500682</v>
@@ -14920,7 +14884,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.547725257457228</v>
+        <v>1.453464895385968</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.334566773406038</v>
@@ -15206,7 +15170,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.613597378782162</v>
+        <v>1.514856487196478</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.885309034105949</v>
@@ -15295,7 +15259,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.600940023691224</v>
+        <v>1.504334198741124</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.429522490908984</v>
@@ -15384,7 +15348,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.606339991093791</v>
+        <v>1.502934336467009</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.252975308121998</v>
@@ -15473,7 +15437,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.609395883602025</v>
+        <v>1.502544966372416</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.246306303077338</v>
@@ -15562,7 +15526,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.611543404328553</v>
+        <v>1.499585408658823</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.137291448429739</v>
@@ -15651,7 +15615,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.612708043731029</v>
+        <v>1.49932056202383</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.320027382456702</v>
@@ -15740,7 +15704,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.606374629613986</v>
+        <v>1.496159727828717</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.097532766053212</v>
@@ -15829,7 +15793,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.601271129209439</v>
+        <v>1.501825077635221</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.077289823431339</v>
@@ -15918,7 +15882,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.605772653918605</v>
+        <v>1.511076615607911</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.372601197619964</v>
@@ -16007,7 +15971,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.595447811115072</v>
+        <v>1.504328312250991</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.569182896143613</v>
@@ -16096,7 +16060,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.607175427063315</v>
+        <v>1.511950026161339</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.412409961842298</v>
@@ -16185,7 +16149,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.604447740021143</v>
+        <v>1.509685343365801</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.369965744268443</v>
@@ -16274,7 +16238,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.605387672667291</v>
+        <v>1.50917996154081</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.404328057443145</v>
@@ -16363,7 +16327,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.603589568538073</v>
+        <v>1.506832801036235</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.708937796936906</v>
@@ -16452,7 +16416,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.608635353262575</v>
+        <v>1.505454933967868</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.145389235883014</v>
@@ -16541,7 +16505,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.603999959502701</v>
+        <v>1.504806585116702</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.413560880764976</v>
@@ -16630,7 +16594,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.605456565630011</v>
+        <v>1.506855110927918</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.55120131783654</v>
@@ -16719,7 +16683,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.609478501160415</v>
+        <v>1.510948145303575</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.253505734620044</v>
@@ -16808,7 +16772,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.614227354049812</v>
+        <v>1.521613263283509</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.302297463784838</v>
@@ -16897,7 +16861,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.610259341693129</v>
+        <v>1.525331418232698</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.820408677481697</v>
@@ -16986,7 +16950,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.600306238181948</v>
+        <v>1.520065569916947</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.326656710645056</v>
@@ -17075,7 +17039,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.59539100726447</v>
+        <v>1.515565400548883</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.471139721789878</v>
@@ -17164,7 +17128,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.60825413497104</v>
+        <v>1.525798877011295</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.527198653653738</v>
@@ -17253,7 +17217,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.604264729010337</v>
+        <v>1.523284689336073</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.640711485717328</v>
@@ -17342,7 +17306,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.602419679705561</v>
+        <v>1.522167684528813</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.531394505190474</v>
@@ -17431,7 +17395,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.59571711540496</v>
+        <v>1.519813107203629</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.660086498910709</v>
@@ -17520,7 +17484,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.595024696546707</v>
+        <v>1.519781654278237</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.27973508983655</v>
@@ -17609,7 +17573,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.585217046277265</v>
+        <v>1.517030526526238</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.33142209399135</v>
@@ -17698,7 +17662,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.596181213988268</v>
+        <v>1.526723425023049</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.824076423369001</v>
@@ -17787,7 +17751,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.594795577738675</v>
+        <v>1.52201546857386</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.701204377405644</v>
@@ -17876,7 +17840,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.593220087102302</v>
+        <v>1.518404849554251</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.313305096508785</v>
@@ -17965,7 +17929,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.585005018195058</v>
+        <v>1.510995149759872</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.628761151263781</v>
@@ -18054,7 +18018,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.584129996534045</v>
+        <v>1.511016670342328</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.318086481062831</v>
@@ -18143,7 +18107,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.581996515159665</v>
+        <v>1.509999854646198</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.674489168833758</v>
@@ -18232,7 +18196,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.601723741640604</v>
+        <v>1.519019124589927</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.54594460233113</v>
@@ -18321,7 +18285,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.607258579229248</v>
+        <v>1.520466438092278</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.521744136655891</v>
@@ -18410,7 +18374,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.609580242685505</v>
+        <v>1.52165581040567</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.566328076391306</v>
@@ -18499,7 +18463,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.609085221415987</v>
+        <v>1.513243923945321</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.715712655194755</v>
@@ -18588,7 +18552,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.609787309145459</v>
+        <v>1.509448738470837</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.72265360653402</v>
@@ -18677,7 +18641,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.624019329835318</v>
+        <v>1.522782852794156</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.170292862949136</v>
@@ -18766,7 +18730,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.620166043439994</v>
+        <v>1.513555932902554</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.111777715135427</v>
@@ -18855,7 +18819,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.627593882845227</v>
+        <v>1.517904404045372</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.372954503390315</v>
@@ -18944,7 +18908,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.642432398332683</v>
+        <v>1.524529744643696</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.387347154928177</v>
@@ -19033,7 +18997,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.638839152281891</v>
+        <v>1.522309195441814</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.787524519003209</v>
@@ -19122,7 +19086,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.639068195031904</v>
+        <v>1.526606036023526</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.109828462638364</v>
@@ -19211,7 +19175,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.649044848714556</v>
+        <v>1.533638506698926</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.131171645354152</v>
@@ -19300,7 +19264,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.663605653619453</v>
+        <v>1.547103186661351</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.737276222963136</v>
@@ -19389,7 +19353,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.665172675309855</v>
+        <v>1.544003320259593</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.420445646560717</v>
@@ -19478,7 +19442,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.647069317997974</v>
+        <v>1.516063374146282</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.188945763032436</v>
@@ -19764,7 +19728,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.509541542166858</v>
+        <v>1.477644618673724</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.094321463866885</v>
@@ -19853,7 +19817,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.516043528663897</v>
+        <v>1.481036092185117</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.147754516762706</v>
@@ -19942,7 +19906,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.523701393667304</v>
+        <v>1.488067626701386</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.130353402512006</v>
@@ -20031,7 +19995,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.520977332201289</v>
+        <v>1.487963699497305</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.050953084018186</v>
@@ -20120,7 +20084,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.526500535152656</v>
+        <v>1.496588450068572</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.066346174939681</v>
@@ -20209,7 +20173,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.525562471612282</v>
+        <v>1.492093331075426</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.12562917703358</v>
@@ -20298,7 +20262,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.528139749251162</v>
+        <v>1.497916362328618</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.094846703936086</v>
@@ -20387,7 +20351,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.538265806163917</v>
+        <v>1.50689310853617</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.075266874499711</v>
@@ -20476,7 +20440,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.544628920196755</v>
+        <v>1.510888096162951</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.118390644894056</v>
@@ -20565,7 +20529,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.545777119370244</v>
+        <v>1.508711843532202</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.146090016790366</v>
@@ -20654,7 +20618,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.562667049731504</v>
+        <v>1.522115865863836</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.117113328149627</v>
@@ -20743,7 +20707,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.564729817616397</v>
+        <v>1.520180054370032</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.131876327259295</v>
@@ -20832,7 +20796,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.560687126205111</v>
+        <v>1.518217622466232</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.189640803800935</v>
@@ -20921,7 +20885,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.56696771108895</v>
+        <v>1.518491563067361</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.026996734489615</v>
@@ -21010,7 +20974,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.615442225923059</v>
+        <v>1.550440273821599</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.286354981212479</v>
@@ -21099,7 +21063,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.621290750766145</v>
+        <v>1.560114771785847</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.093324435872715</v>
@@ -21188,7 +21152,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.630381215596319</v>
+        <v>1.565613410497854</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.896383439543542</v>
@@ -21277,7 +21241,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.6378423225393</v>
+        <v>1.570030264953037</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.836153013540088</v>
@@ -21366,7 +21330,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.644240834093613</v>
+        <v>1.577887114026874</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.106817981141758</v>
@@ -21455,7 +21419,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.640482541777777</v>
+        <v>1.576592783671518</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.783680112365431</v>
@@ -21544,7 +21508,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.642052777081608</v>
+        <v>1.578499200476798</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.261363842016762</v>
@@ -21633,7 +21597,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.62965130555796</v>
+        <v>1.566754146837432</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.780124334267555</v>
@@ -21722,7 +21686,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.626957151992518</v>
+        <v>1.562322862356775</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.293009081794283</v>
@@ -21811,7 +21775,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.630243865604174</v>
+        <v>1.565762648829635</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.233734988820647</v>
@@ -21900,7 +21864,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.633712089187353</v>
+        <v>1.572195721048312</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.229832229807381</v>
@@ -21989,7 +21953,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.622671700424999</v>
+        <v>1.565353403073156</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.306671049821141</v>
@@ -22078,7 +22042,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.629961762994655</v>
+        <v>1.569506186189632</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.280852528513237</v>
@@ -22167,7 +22131,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.628502204836787</v>
+        <v>1.563673164975539</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.265418780920633</v>
@@ -22256,7 +22220,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.644775571710193</v>
+        <v>1.576675006371135</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.986109501549278</v>
@@ -22345,7 +22309,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.660739908868404</v>
+        <v>1.594254691299238</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.122781399270864</v>
@@ -22434,7 +22398,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.652884134777492</v>
+        <v>1.582300821954307</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.904692722466218</v>
@@ -22523,7 +22487,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.645350017792113</v>
+        <v>1.575488761317554</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.303028191677071</v>
@@ -22612,7 +22576,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.627371798214597</v>
+        <v>1.557985299335636</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.956642604017538</v>
@@ -22701,7 +22665,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.633310157981048</v>
+        <v>1.566225425614475</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.743784994829891</v>
@@ -22790,7 +22754,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.633841924890684</v>
+        <v>1.560214997267995</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.121721646137286</v>
@@ -22879,7 +22843,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.637561915743118</v>
+        <v>1.564224758130596</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.584298339583571</v>
@@ -22968,7 +22932,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.625774887815031</v>
+        <v>1.562963528481695</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.697963910277176</v>
@@ -23057,7 +23021,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.624071344020689</v>
+        <v>1.557231999903752</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.438688464776183</v>
@@ -23146,7 +23110,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.616986427851885</v>
+        <v>1.554869407060415</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.386985990489486</v>
@@ -23235,7 +23199,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.625092582756036</v>
+        <v>1.563499503690589</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.148162857726819</v>
@@ -23324,7 +23288,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.62902145547586</v>
+        <v>1.55913861230068</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.687563568718641</v>
@@ -23413,7 +23377,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.628281142247745</v>
+        <v>1.5626245603386</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.787753805573987</v>
@@ -23502,7 +23466,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.62444860720087</v>
+        <v>1.564711792623449</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.18482768131763</v>
@@ -23591,7 +23555,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.62939530727526</v>
+        <v>1.569517998312181</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.472344060504149</v>
@@ -23680,7 +23644,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.631106701133418</v>
+        <v>1.574166977821873</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.646055853345528</v>
@@ -23769,7 +23733,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.639321470213411</v>
+        <v>1.584400467774439</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.515104091700791</v>
@@ -23858,7 +23822,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.64455216924861</v>
+        <v>1.592391272578326</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.646249932065217</v>
@@ -23947,7 +23911,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.665453104848298</v>
+        <v>1.607685737422051</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.172701348107607</v>
@@ -24036,7 +24000,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.601312969602133</v>
+        <v>1.546889884488554</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.697472425357564</v>
@@ -24322,7 +24286,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.600227039648071</v>
+        <v>1.558133476392424</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.046607094329177</v>
@@ -24411,7 +24375,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.593114511945428</v>
+        <v>1.544476048135111</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.768491579046325</v>
@@ -24500,7 +24464,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.61342275627529</v>
+        <v>1.559234792499778</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.087104453274484</v>
@@ -24589,7 +24553,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.615537509145027</v>
+        <v>1.557242629391996</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.9384191965914</v>
@@ -24678,7 +24642,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.629876413992794</v>
+        <v>1.567811063348558</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.790533531133613</v>
@@ -24767,7 +24731,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.627003380771349</v>
+        <v>1.561084330238414</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.836164240037567</v>
@@ -24856,7 +24820,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.629576195027653</v>
+        <v>1.562294577109954</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.088913181917603</v>
@@ -24945,7 +24909,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.630214381355146</v>
+        <v>1.569380878336343</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.754038374183628</v>
@@ -25034,7 +24998,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.631949031069189</v>
+        <v>1.566191595426855</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.275841525454687</v>
@@ -25123,7 +25087,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.606992161259252</v>
+        <v>1.547187308911875</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.165073914233129</v>
@@ -25212,7 +25176,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.61846969655591</v>
+        <v>1.557200619502876</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.325168598282417</v>
@@ -25301,7 +25265,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.620418858072425</v>
+        <v>1.558115677398916</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.52854547981776</v>
@@ -25390,7 +25354,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.62351447936386</v>
+        <v>1.561933472541305</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.53772295239269</v>
@@ -25479,7 +25443,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.619472135403561</v>
+        <v>1.558774404834291</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.443873933851217</v>
@@ -25568,7 +25532,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.615091668759339</v>
+        <v>1.548976673943662</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.968122141990265</v>
@@ -25657,7 +25621,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.613921714460649</v>
+        <v>1.549426264112382</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.285327752229624</v>
@@ -25746,7 +25710,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.604632499517113</v>
+        <v>1.543586869240783</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.640500409181252</v>
@@ -25835,7 +25799,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.6006028353592</v>
+        <v>1.540749446470785</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.156465510158259</v>
@@ -25924,7 +25888,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.601920667594974</v>
+        <v>1.549799218111433</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.028032420144877</v>
@@ -26013,7 +25977,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.606103887307081</v>
+        <v>1.55196111801615</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.1417558486337</v>
@@ -26102,7 +26066,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.588693022131324</v>
+        <v>1.538570782729107</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.919726125146509</v>
@@ -26191,7 +26155,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.574801307734842</v>
+        <v>1.530991233409782</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.245172554365781</v>
@@ -26280,7 +26244,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.579797585810895</v>
+        <v>1.537647611713288</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.986544977892287</v>
@@ -26369,7 +26333,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.579137930417833</v>
+        <v>1.533156919443669</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.175293824460524</v>
@@ -26458,7 +26422,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.596284846229845</v>
+        <v>1.550328562940774</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.244422567298316</v>
@@ -26547,7 +26511,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.57607389434104</v>
+        <v>1.539530082441915</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.171848463171445</v>
@@ -26636,7 +26600,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.578983048698652</v>
+        <v>1.53913204098872</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.023639689259126</v>
@@ -26725,7 +26689,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.563385872091566</v>
+        <v>1.527190870433943</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.872830791492179</v>
@@ -26814,7 +26778,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.57177812095799</v>
+        <v>1.536221416982568</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.209210160081009</v>
@@ -26903,7 +26867,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.571856818103036</v>
+        <v>1.538718936492848</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.026157552676135</v>
@@ -26992,7 +26956,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.579494751618252</v>
+        <v>1.548441023096367</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.854938787320643</v>
@@ -27081,7 +27045,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.591301876872754</v>
+        <v>1.557503116997713</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.942255219119606</v>
@@ -27170,7 +27134,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.588963656452598</v>
+        <v>1.549291615158317</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.112355421815554</v>
@@ -27259,7 +27223,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.570104925151026</v>
+        <v>1.532416339206504</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.887344955166249</v>
@@ -27348,7 +27312,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.570394447776274</v>
+        <v>1.533700380880294</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.993714565448899</v>
@@ -27437,7 +27401,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.590929332856077</v>
+        <v>1.550173475341073</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.708197316272642</v>
@@ -27526,7 +27490,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.59704165525552</v>
+        <v>1.560190212973301</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.046984990751891</v>
@@ -27615,7 +27579,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.602946795787609</v>
+        <v>1.5615803299388</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.099601482727121</v>
@@ -27704,7 +27668,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.614483418729196</v>
+        <v>1.573524922027285</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.252343988629602</v>
@@ -27793,7 +27757,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.616907975277682</v>
+        <v>1.569398842479376</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.576450057732966</v>
@@ -27882,7 +27846,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.62151117826876</v>
+        <v>1.568435975031834</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.156832265295068</v>
@@ -27971,7 +27935,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.613636432700195</v>
+        <v>1.559240360881293</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.700201346522252</v>
@@ -28060,7 +28024,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.636492943756508</v>
+        <v>1.573022323679972</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.920726800777036</v>
@@ -28149,7 +28113,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.641241221368059</v>
+        <v>1.572919531748651</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.813333889328434</v>
@@ -28238,7 +28202,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.639535454045387</v>
+        <v>1.573392019314124</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.024041621343821</v>
@@ -28327,7 +28291,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.64270066332898</v>
+        <v>1.565052754879034</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.12965177063057</v>
@@ -28416,7 +28380,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.634873060015245</v>
+        <v>1.561051434426572</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.874668757464421</v>
@@ -28505,7 +28469,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.643315800885969</v>
+        <v>1.569837352148198</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.699071302571465</v>
@@ -28594,7 +28558,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.608232961385858</v>
+        <v>1.530912157351493</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.454514188344038</v>
